--- a/data/trans_orig/Q5417-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A49C916B-4BF6-4303-AD04-E8A7BE556D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9CBD11-E680-4BE4-AA93-0BAA87B529F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6BB95E2-1B11-4C62-9FF8-9EF6F7C111C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F38D5F28-503E-4E19-95FE-E937738FF3EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="379">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,1108 +80,1102 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Con mucha ayuda</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>Con algo de ayuda</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Con mucha ayuda</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>Con algo de ayuda</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>5,59%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5090009-81B4-4336-94CD-7E81D4262C7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CECB37-BC83-498E-898F-435C07D3E3EF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1786,10 +1780,10 @@
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1798,19 +1792,19 @@
         <v>6105</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
@@ -1819,13 +1813,13 @@
         <v>8549</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -1834,13 +1828,13 @@
         <v>21927</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -1849,19 +1843,19 @@
         <v>30477</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>387</v>
@@ -1870,28 +1864,28 @@
         <v>362102</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>546</v>
       </c>
       <c r="I7" s="7">
-        <v>558222</v>
+        <v>558221</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>933</v>
@@ -1900,13 +1894,13 @@
         <v>920323</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,28 +1915,28 @@
         <v>373189</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>574</v>
       </c>
       <c r="I8" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>973</v>
@@ -1951,18 +1945,18 @@
         <v>960938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1977,10 +1971,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1989,13 +1983,13 @@
         <v>1141</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2004,13 +1998,13 @@
         <v>1141</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,11 +2022,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
@@ -2043,31 +2037,31 @@
         <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2076,13 +2070,13 @@
         <v>810</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2091,7 +2085,7 @@
         <v>914</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
@@ -2118,7 +2112,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>88</v>
@@ -2178,13 +2172,13 @@
         <v>88083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -2193,13 +2187,13 @@
         <v>62212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -2208,13 +2202,13 @@
         <v>150295</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>73</v>
@@ -2249,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>74</v>
@@ -2264,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>75</v>
@@ -2285,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>73</v>
@@ -2324,7 +2318,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2336,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>73</v>
@@ -2375,7 +2369,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>35</v>
@@ -2390,7 +2384,7 @@
         <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2435,13 +2429,13 @@
         <v>41194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -2450,13 +2444,13 @@
         <v>26881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -2465,13 +2459,13 @@
         <v>68075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -2503,10 +2497,10 @@
         <v>4337</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>91</v>
@@ -2521,10 +2515,10 @@
         <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2533,13 @@
         <v>1699</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2554,13 +2548,13 @@
         <v>5332</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2569,19 +2563,19 @@
         <v>7030</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
         <v>10</v>
@@ -2590,13 +2584,13 @@
         <v>9359</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2605,13 +2599,13 @@
         <v>24115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -2620,19 +2614,19 @@
         <v>33474</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>510</v>
@@ -2641,13 +2635,13 @@
         <v>490570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>629</v>
@@ -2656,13 +2650,13 @@
         <v>643059</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>1139</v>
@@ -2671,13 +2665,13 @@
         <v>1133629</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2686,13 @@
         <v>502466</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>661</v>
@@ -2707,13 +2701,13 @@
         <v>676842</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1184</v>
@@ -2722,18 +2716,18 @@
         <v>1179308</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +2746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2786D5E-8C14-4055-BF62-9E414950404A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C1E55C-DC3C-4BF5-BC2A-4841CEE2F597}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2769,7 +2763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2876,13 +2870,13 @@
         <v>6256</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2891,13 +2885,13 @@
         <v>11066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2906,13 +2900,13 @@
         <v>17322</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2921,13 @@
         <v>4353</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -2942,13 +2936,13 @@
         <v>12924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -2957,19 +2951,19 @@
         <v>17277</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
@@ -2978,13 +2972,13 @@
         <v>12774</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -2993,13 +2987,13 @@
         <v>34951</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -3008,19 +3002,19 @@
         <v>47725</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>357</v>
@@ -3029,13 +3023,13 @@
         <v>391015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>543</v>
@@ -3044,13 +3038,13 @@
         <v>575604</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>900</v>
@@ -3059,13 +3053,13 @@
         <v>966618</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3074,13 @@
         <v>414398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>596</v>
@@ -3095,13 +3089,13 @@
         <v>634545</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>974</v>
@@ -3110,18 +3104,18 @@
         <v>1048942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3133,13 +3127,13 @@
         <v>992</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3148,13 +3142,13 @@
         <v>2424</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3163,13 +3157,13 @@
         <v>3416</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +3181,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3202,10 +3196,10 @@
         <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3217,16 +3211,16 @@
         <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -3235,13 +3229,13 @@
         <v>1107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3250,13 +3244,13 @@
         <v>1109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3265,19 +3259,19 @@
         <v>2215</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>103</v>
@@ -3286,10 +3280,10 @@
         <v>116566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>66</v>
@@ -3301,13 +3295,13 @@
         <v>79541</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M12" s="7">
         <v>177</v>
@@ -3316,13 +3310,13 @@
         <v>196107</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3331,13 @@
         <v>118665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -3352,13 +3346,13 @@
         <v>83074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -3367,13 +3361,13 @@
         <v>201739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,10 +3387,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3408,10 +3402,10 @@
         <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3423,10 +3417,10 @@
         <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,10 +3438,10 @@
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3456,13 +3450,13 @@
         <v>1100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -3471,19 +3465,19 @@
         <v>1100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -3492,13 +3486,13 @@
         <v>986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3510,10 +3504,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3522,19 +3516,19 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
@@ -3543,10 +3537,10 @@
         <v>25589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -3558,10 +3552,10 @@
         <v>21146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -3573,10 +3567,10 @@
         <v>46736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -3594,13 +3588,13 @@
         <v>26575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3609,13 +3603,13 @@
         <v>22246</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -3624,13 +3618,13 @@
         <v>48821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3641,13 @@
         <v>7249</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3662,13 +3656,13 @@
         <v>13490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -3677,13 +3671,13 @@
         <v>20738</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3692,13 @@
         <v>4353</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3713,13 +3707,13 @@
         <v>14023</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3728,19 +3722,19 @@
         <v>18376</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
         <v>14</v>
@@ -3749,13 +3743,13 @@
         <v>14866</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -3764,13 +3758,13 @@
         <v>36060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M21" s="7">
         <v>47</v>
@@ -3779,19 +3773,19 @@
         <v>50926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>480</v>
@@ -3800,13 +3794,13 @@
         <v>533169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H22" s="7">
         <v>634</v>
@@ -3815,13 +3809,13 @@
         <v>676292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>1114</v>
@@ -3830,13 +3824,13 @@
         <v>1209461</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3845,13 @@
         <v>559637</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>691</v>
@@ -3866,13 +3860,13 @@
         <v>739865</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1195</v>
@@ -3881,18 +3875,18 @@
         <v>1299502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4035265-A86D-4972-8AE5-F045C1994750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DA0423-BF9A-4B7E-9908-32D324CAA1D7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3928,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4035,13 +4029,13 @@
         <v>892</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4050,13 +4044,13 @@
         <v>9535</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4068,10 +4062,10 @@
         <v>62</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4080,13 @@
         <v>6017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4107,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4116,19 +4110,19 @@
         <v>8484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>10</v>
@@ -4137,13 +4131,13 @@
         <v>8638</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -4152,13 +4146,13 @@
         <v>29871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -4167,34 +4161,34 @@
         <v>38509</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>368</v>
       </c>
       <c r="D7" s="7">
-        <v>338354</v>
+        <v>338353</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>438</v>
@@ -4203,13 +4197,13 @@
         <v>512884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>806</v>
@@ -4218,13 +4212,13 @@
         <v>851237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,16 +4230,16 @@
         <v>386</v>
       </c>
       <c r="D8" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>471</v>
@@ -4254,13 +4248,13 @@
         <v>554757</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>857</v>
@@ -4269,18 +4263,18 @@
         <v>908658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4292,13 +4286,13 @@
         <v>1804</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4310,10 +4304,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4322,13 +4316,13 @@
         <v>1804</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4337,13 @@
         <v>898</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4364,7 +4358,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4373,19 +4367,19 @@
         <v>3054</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4397,10 +4391,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4409,13 +4403,13 @@
         <v>1033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4424,19 +4418,19 @@
         <v>1033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>194</v>
@@ -4445,13 +4439,13 @@
         <v>189830</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -4460,13 +4454,13 @@
         <v>184885</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>348</v>
@@ -4475,13 +4469,13 @@
         <v>374715</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4490,13 @@
         <v>192532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -4511,13 +4505,13 @@
         <v>188074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
@@ -4526,13 +4520,13 @@
         <v>380606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,10 +4546,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4567,10 +4561,10 @@
         <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4582,10 +4576,10 @@
         <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,10 +4597,10 @@
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4618,10 +4612,10 @@
         <v>12</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4633,16 +4627,16 @@
         <v>12</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -4651,13 +4645,13 @@
         <v>1572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4666,13 +4660,13 @@
         <v>1376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4681,19 +4675,19 @@
         <v>2948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>40</v>
@@ -4702,10 +4696,10 @@
         <v>40457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -4717,10 +4711,10 @@
         <v>32298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -4732,10 +4726,10 @@
         <v>72755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -4753,13 +4747,13 @@
         <v>42029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -4768,13 +4762,13 @@
         <v>33674</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -4783,13 +4777,13 @@
         <v>75703</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,7 +4806,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4821,13 +4815,13 @@
         <v>9535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -4836,13 +4830,13 @@
         <v>12232</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>21</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,13 +4851,13 @@
         <v>6915</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4872,13 +4866,13 @@
         <v>4623</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4887,19 +4881,19 @@
         <v>11538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
         <v>11</v>
@@ -4908,13 +4902,13 @@
         <v>10210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -4923,13 +4917,13 @@
         <v>32280</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -4938,19 +4932,19 @@
         <v>42491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>602</v>
@@ -4959,13 +4953,13 @@
         <v>568641</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>617</v>
@@ -4974,13 +4968,13 @@
         <v>730067</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>1219</v>
@@ -4989,13 +4983,13 @@
         <v>1298708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5004,13 @@
         <v>588463</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>654</v>
@@ -5025,13 +5019,13 @@
         <v>776505</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1278</v>
@@ -5040,18 +5034,18 @@
         <v>1364968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5070,7 +5064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15373A9-F83C-4067-B6F5-3A89D40FB034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F31707-76F5-4951-AA4F-4E3CAF354510}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5087,7 +5081,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5194,13 +5188,13 @@
         <v>2275</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5209,13 +5203,13 @@
         <v>12049</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -5224,13 +5218,13 @@
         <v>14324</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5239,13 @@
         <v>882</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5260,13 +5254,13 @@
         <v>6087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5275,19 +5269,19 @@
         <v>6969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>15</v>
@@ -5296,13 +5290,13 @@
         <v>9629</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H6" s="7">
         <v>61</v>
@@ -5311,13 +5305,13 @@
         <v>35540</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M6" s="7">
         <v>76</v>
@@ -5326,19 +5320,19 @@
         <v>45168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>406</v>
@@ -5347,13 +5341,13 @@
         <v>274119</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>926</v>
@@ -5362,13 +5356,13 @@
         <v>501844</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>1332</v>
@@ -5377,13 +5371,13 @@
         <v>775962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5392,13 @@
         <v>286904</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>1019</v>
@@ -5413,13 +5407,13 @@
         <v>555520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>1446</v>
@@ -5428,18 +5422,18 @@
         <v>842424</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5454,10 +5448,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5466,13 +5460,13 @@
         <v>473</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5481,13 +5475,13 @@
         <v>473</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5496,13 @@
         <v>2233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5520,10 +5514,10 @@
         <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5532,19 +5526,19 @@
         <v>4002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -5553,13 +5547,13 @@
         <v>3977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5568,13 +5562,13 @@
         <v>7957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5583,19 +5577,19 @@
         <v>11934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>418</v>
@@ -5604,13 +5598,13 @@
         <v>288356</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H12" s="7">
         <v>507</v>
@@ -5619,28 +5613,28 @@
         <v>375848</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M12" s="7">
         <v>925</v>
       </c>
       <c r="N12" s="7">
-        <v>664203</v>
+        <v>664204</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5649,13 @@
         <v>294566</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>528</v>
@@ -5670,28 +5664,28 @@
         <v>386046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>954</v>
       </c>
       <c r="N13" s="7">
-        <v>680611</v>
+        <v>680612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,10 +5705,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5726,10 +5720,10 @@
         <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5741,10 +5735,10 @@
         <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5753,13 @@
         <v>159</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5777,10 +5771,10 @@
         <v>12</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5789,19 +5783,19 @@
         <v>159</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>354</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -5813,10 +5807,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5828,10 +5822,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5843,16 +5837,16 @@
         <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>167</v>
@@ -5861,10 +5855,10 @@
         <v>111827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -5879,10 +5873,10 @@
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -5891,10 +5885,10 @@
         <v>190072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -5912,13 +5906,13 @@
         <v>111986</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>152</v>
@@ -5927,13 +5921,13 @@
         <v>78245</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>320</v>
@@ -5942,13 +5936,13 @@
         <v>190231</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5959,13 @@
         <v>2275</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>362</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5980,13 +5974,13 @@
         <v>12522</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -5995,13 +5989,13 @@
         <v>14797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6010,13 @@
         <v>3274</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -6031,13 +6025,13 @@
         <v>7856</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -6046,19 +6040,19 @@
         <v>11130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
         <v>20</v>
@@ -6067,13 +6061,13 @@
         <v>13606</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>251</v>
+        <v>366</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>368</v>
+        <v>191</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -6082,13 +6076,13 @@
         <v>43496</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
@@ -6097,19 +6091,19 @@
         <v>57102</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>991</v>
@@ -6118,13 +6112,13 @@
         <v>674301</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H22" s="7">
         <v>1585</v>
@@ -6133,13 +6127,13 @@
         <v>955937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>377</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>2576</v>
@@ -6148,13 +6142,13 @@
         <v>1630237</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6163,13 @@
         <v>693456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1699</v>
@@ -6184,13 +6178,13 @@
         <v>1019811</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>2720</v>
@@ -6199,18 +6193,18 @@
         <v>1713266</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5417-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9CBD11-E680-4BE4-AA93-0BAA87B529F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E14DC9E-F52A-4A61-90B3-59FCD45C71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F38D5F28-503E-4E19-95FE-E937738FF3EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B039A41-E642-4781-9691-E6FF0E456E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="387">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,54%</t>
@@ -89,7 +89,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -98,1072 +98,1096 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>Con mucha ayuda</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Con algo de ayuda</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>Con mucha ayuda</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Con algo de ayuda</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>93,74%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
   </si>
   <si>
     <t>92,18%</t>
@@ -1587,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CECB37-BC83-498E-898F-435C07D3E3EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EA15F6-61D2-4DD1-A34D-70965B165EAC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1780,10 +1804,10 @@
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1792,19 +1816,19 @@
         <v>6105</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
@@ -1813,13 +1837,13 @@
         <v>8549</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -1828,13 +1852,13 @@
         <v>21927</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -1843,19 +1867,19 @@
         <v>30477</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>387</v>
@@ -1864,28 +1888,28 @@
         <v>362102</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>546</v>
       </c>
       <c r="I7" s="7">
-        <v>558221</v>
+        <v>558222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>933</v>
@@ -1894,13 +1918,13 @@
         <v>920323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,28 +1939,28 @@
         <v>373189</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>574</v>
       </c>
       <c r="I8" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>973</v>
@@ -1945,18 +1969,18 @@
         <v>960938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1971,10 +1995,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1983,13 +2007,13 @@
         <v>1141</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -1998,13 +2022,13 @@
         <v>1141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,25 +2046,25 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2052,16 +2076,16 @@
         <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2112,7 +2136,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>88</v>
@@ -2172,13 +2196,13 @@
         <v>88083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -2187,13 +2211,13 @@
         <v>62212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -2202,13 +2226,13 @@
         <v>150295</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,7 +2252,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>73</v>
@@ -2243,7 +2267,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>74</v>
@@ -2258,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>75</v>
@@ -2279,7 +2303,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>73</v>
@@ -2318,7 +2342,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2330,7 +2354,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>73</v>
@@ -2369,7 +2393,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>35</v>
@@ -2384,7 +2408,7 @@
         <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2429,13 +2453,13 @@
         <v>41194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -2444,13 +2468,13 @@
         <v>26881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -2459,13 +2483,13 @@
         <v>68075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -2497,10 +2521,10 @@
         <v>4337</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>91</v>
@@ -2515,10 +2539,10 @@
         <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2557,13 @@
         <v>1699</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2548,13 +2572,13 @@
         <v>5332</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2563,19 +2587,19 @@
         <v>7030</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>10</v>
@@ -2584,13 +2608,13 @@
         <v>9359</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2599,13 +2623,13 @@
         <v>24115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -2614,19 +2638,19 @@
         <v>33474</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>510</v>
@@ -2635,13 +2659,13 @@
         <v>490570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>629</v>
@@ -2650,13 +2674,13 @@
         <v>643059</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="M22" s="7">
         <v>1139</v>
@@ -2665,13 +2689,13 @@
         <v>1133629</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2710,13 @@
         <v>502466</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>661</v>
@@ -2701,13 +2725,13 @@
         <v>676842</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1184</v>
@@ -2716,18 +2740,18 @@
         <v>1179308</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2746,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C1E55C-DC3C-4BF5-BC2A-4841CEE2F597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE69A12E-2CAF-4401-AA83-1144C6D0BCCC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2763,7 +2787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2870,13 +2894,13 @@
         <v>6256</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2885,10 +2909,10 @@
         <v>11066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>123</v>
@@ -2900,13 +2924,13 @@
         <v>17322</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2945,13 @@
         <v>4353</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -2936,13 +2960,13 @@
         <v>12924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -2951,19 +2975,19 @@
         <v>17277</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
@@ -2972,13 +2996,13 @@
         <v>12774</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -2987,13 +3011,13 @@
         <v>34951</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -3002,19 +3026,19 @@
         <v>47725</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>357</v>
@@ -3023,13 +3047,13 @@
         <v>391015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>543</v>
@@ -3038,13 +3062,13 @@
         <v>575604</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>900</v>
@@ -3053,13 +3077,13 @@
         <v>966618</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3098,13 @@
         <v>414398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>596</v>
@@ -3089,13 +3113,13 @@
         <v>634545</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>974</v>
@@ -3104,18 +3128,18 @@
         <v>1048942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3127,13 +3151,13 @@
         <v>992</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3142,13 +3166,13 @@
         <v>2424</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3157,13 +3181,13 @@
         <v>3416</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>156</v>
@@ -3196,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>157</v>
@@ -3211,16 +3235,16 @@
         <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -3229,13 +3253,13 @@
         <v>1107</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3244,13 +3268,13 @@
         <v>1109</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3259,19 +3283,19 @@
         <v>2215</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>103</v>
@@ -3280,10 +3304,10 @@
         <v>116566</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>66</v>
@@ -3295,13 +3319,13 @@
         <v>79541</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M12" s="7">
         <v>177</v>
@@ -3310,7 +3334,7 @@
         <v>196107</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>169</v>
@@ -3331,13 +3355,13 @@
         <v>118665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -3346,13 +3370,13 @@
         <v>83074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -3361,13 +3385,13 @@
         <v>201739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,7 +3411,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>171</v>
@@ -3402,7 +3426,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>172</v>
@@ -3417,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>173</v>
@@ -3438,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>171</v>
@@ -3477,7 +3501,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -3504,7 +3528,7 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>172</v>
@@ -3528,7 +3552,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
@@ -3588,13 +3612,13 @@
         <v>26575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3603,13 +3627,13 @@
         <v>22246</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -3618,13 +3642,13 @@
         <v>48821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3680,13 @@
         <v>13490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -3671,13 +3695,13 @@
         <v>20738</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3716,13 @@
         <v>4353</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3707,13 +3731,13 @@
         <v>14023</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3722,19 +3746,19 @@
         <v>18376</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>14</v>
@@ -3746,10 +3770,10 @@
         <v>201</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -3758,13 +3782,13 @@
         <v>36060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M21" s="7">
         <v>47</v>
@@ -3773,19 +3797,19 @@
         <v>50926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>480</v>
@@ -3794,13 +3818,13 @@
         <v>533169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="H22" s="7">
         <v>634</v>
@@ -3809,13 +3833,13 @@
         <v>676292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>1114</v>
@@ -3824,13 +3848,13 @@
         <v>1209461</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3869,13 @@
         <v>559637</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>691</v>
@@ -3860,13 +3884,13 @@
         <v>739865</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1195</v>
@@ -3875,18 +3899,18 @@
         <v>1299502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DA0423-BF9A-4B7E-9908-32D324CAA1D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD64F19-4DD7-4A64-94FE-E9A53EA8ACB2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4029,13 +4053,13 @@
         <v>892</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4044,13 +4068,13 @@
         <v>9535</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4062,7 +4086,7 @@
         <v>62</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>222</v>
@@ -4080,13 +4104,13 @@
         <v>6017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4101,7 +4125,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4110,19 +4134,19 @@
         <v>8484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>10</v>
@@ -4131,13 +4155,13 @@
         <v>8638</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -4146,13 +4170,13 @@
         <v>29871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -4161,34 +4185,34 @@
         <v>38509</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>368</v>
       </c>
       <c r="D7" s="7">
-        <v>338353</v>
+        <v>338354</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>438</v>
@@ -4197,13 +4221,13 @@
         <v>512884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>806</v>
@@ -4212,13 +4236,13 @@
         <v>851237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,16 +4254,16 @@
         <v>386</v>
       </c>
       <c r="D8" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>471</v>
@@ -4248,13 +4272,13 @@
         <v>554757</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>857</v>
@@ -4263,18 +4287,18 @@
         <v>908658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4286,13 +4310,13 @@
         <v>1804</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4304,10 +4328,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4316,13 +4340,13 @@
         <v>1804</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4361,13 @@
         <v>898</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4358,7 +4382,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4367,19 +4391,19 @@
         <v>3054</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4391,10 +4415,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4409,7 +4433,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4418,19 +4442,19 @@
         <v>1033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>194</v>
@@ -4439,13 +4463,13 @@
         <v>189830</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -4454,13 +4478,13 @@
         <v>184885</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>348</v>
@@ -4469,13 +4493,13 @@
         <v>374715</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4514,13 @@
         <v>192532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -4505,13 +4529,13 @@
         <v>188074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
@@ -4520,13 +4544,13 @@
         <v>380606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,10 +4570,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4561,10 +4585,10 @@
         <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4576,10 +4600,10 @@
         <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,10 +4621,10 @@
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4612,10 +4636,10 @@
         <v>12</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4627,16 +4651,16 @@
         <v>12</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -4645,13 +4669,13 @@
         <v>1572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4660,13 +4684,13 @@
         <v>1376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4675,19 +4699,19 @@
         <v>2948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>40</v>
@@ -4696,10 +4720,10 @@
         <v>40457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -4711,10 +4735,10 @@
         <v>32298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -4726,10 +4750,10 @@
         <v>72755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -4747,13 +4771,13 @@
         <v>42029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -4762,13 +4786,13 @@
         <v>33674</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -4777,13 +4801,13 @@
         <v>75703</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,7 +4830,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -4815,13 +4839,13 @@
         <v>9535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -4830,13 +4854,13 @@
         <v>12232</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4875,13 @@
         <v>6915</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4866,13 +4890,13 @@
         <v>4623</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4881,19 +4905,19 @@
         <v>11538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>11</v>
@@ -4902,13 +4926,13 @@
         <v>10210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>278</v>
+        <v>90</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -4917,13 +4941,13 @@
         <v>32280</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -4932,19 +4956,19 @@
         <v>42491</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>602</v>
@@ -4953,13 +4977,13 @@
         <v>568641</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H22" s="7">
         <v>617</v>
@@ -4968,13 +4992,13 @@
         <v>730067</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
         <v>1219</v>
@@ -4983,13 +5007,13 @@
         <v>1298708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5028,13 @@
         <v>588463</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>654</v>
@@ -5019,13 +5043,13 @@
         <v>776505</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>1278</v>
@@ -5034,18 +5058,18 @@
         <v>1364968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5064,7 +5088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F31707-76F5-4951-AA4F-4E3CAF354510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A44556-9E16-4658-ACB1-3B101253AECF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5081,7 +5105,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5188,13 +5212,13 @@
         <v>2275</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5203,13 +5227,13 @@
         <v>12049</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>134</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -5218,13 +5242,13 @@
         <v>14324</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5263,13 @@
         <v>882</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5254,13 +5278,13 @@
         <v>6087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5269,19 +5293,19 @@
         <v>6969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>15</v>
@@ -5290,13 +5314,13 @@
         <v>9629</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H6" s="7">
         <v>61</v>
@@ -5305,13 +5329,13 @@
         <v>35540</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M6" s="7">
         <v>76</v>
@@ -5320,19 +5344,19 @@
         <v>45168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>406</v>
@@ -5341,13 +5365,13 @@
         <v>274119</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
         <v>926</v>
@@ -5356,13 +5380,13 @@
         <v>501844</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>1332</v>
@@ -5371,13 +5395,13 @@
         <v>775962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5416,13 @@
         <v>286904</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1019</v>
@@ -5407,13 +5431,13 @@
         <v>555520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>1446</v>
@@ -5422,18 +5446,18 @@
         <v>842424</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5448,10 +5472,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5460,13 +5484,13 @@
         <v>473</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5475,13 +5499,13 @@
         <v>473</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5520,13 @@
         <v>2233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5514,10 +5538,10 @@
         <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5526,19 +5550,19 @@
         <v>4002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -5547,13 +5571,13 @@
         <v>3977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5562,13 +5586,13 @@
         <v>7957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5577,19 +5601,19 @@
         <v>11934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>418</v>
@@ -5598,13 +5622,13 @@
         <v>288356</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H12" s="7">
         <v>507</v>
@@ -5613,13 +5637,13 @@
         <v>375848</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M12" s="7">
         <v>925</v>
@@ -5628,13 +5652,13 @@
         <v>664204</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>346</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5673,13 @@
         <v>294566</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>528</v>
@@ -5664,13 +5688,13 @@
         <v>386046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>954</v>
@@ -5679,13 +5703,13 @@
         <v>680612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,10 +5729,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5720,10 +5744,10 @@
         <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5735,10 +5759,10 @@
         <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5777,13 @@
         <v>159</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5771,10 +5795,10 @@
         <v>12</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5783,19 +5807,19 @@
         <v>159</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -5807,10 +5831,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5822,10 +5846,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5837,16 +5861,16 @@
         <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>167</v>
@@ -5855,10 +5879,10 @@
         <v>111827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -5873,10 +5897,10 @@
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -5885,10 +5909,10 @@
         <v>190072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -5906,13 +5930,13 @@
         <v>111986</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>152</v>
@@ -5921,13 +5945,13 @@
         <v>78245</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>320</v>
@@ -5936,13 +5960,13 @@
         <v>190231</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5983,13 @@
         <v>2275</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5974,13 +5998,13 @@
         <v>12522</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -5989,13 +6013,13 @@
         <v>14797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>364</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6034,13 @@
         <v>3274</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -6025,10 +6049,10 @@
         <v>7856</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>188</v>
@@ -6040,19 +6064,19 @@
         <v>11130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>20</v>
@@ -6061,13 +6085,13 @@
         <v>13606</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>191</v>
+        <v>373</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -6076,13 +6100,13 @@
         <v>43496</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
@@ -6091,19 +6115,19 @@
         <v>57102</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>125</v>
+        <v>377</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>991</v>
@@ -6112,13 +6136,13 @@
         <v>674301</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>1585</v>
@@ -6127,13 +6151,13 @@
         <v>955937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>2576</v>
@@ -6142,13 +6166,13 @@
         <v>1630237</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6187,13 @@
         <v>693456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>1699</v>
@@ -6178,13 +6202,13 @@
         <v>1019811</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>2720</v>
@@ -6193,18 +6217,18 @@
         <v>1713266</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5417-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E14DC9E-F52A-4A61-90B3-59FCD45C71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D176FA42-67AB-4FBA-BDA3-8BEE1E31E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B039A41-E642-4781-9691-E6FF0E456E0B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0237E49F-8C77-48AB-B6F4-062D7397B0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="381">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,1126 +80,1108 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>Con mucha ayuda</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>Con algo de ayuda</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>Con mucha ayuda</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Con algo de ayuda</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EA15F6-61D2-4DD1-A34D-70965B165EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE588C33-DBDB-4E0A-ADC2-A1EECEA12F63}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2079,7 +2061,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2076,13 @@
         <v>810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2109,7 +2091,7 @@
         <v>914</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
@@ -2680,7 +2662,7 @@
         <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>1139</v>
@@ -2689,13 +2671,13 @@
         <v>1133629</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,7 +2733,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE69A12E-2CAF-4401-AA83-1144C6D0BCCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5F537B-AF9E-41DD-8BFE-E5908AF1F13E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,7 +2769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2894,13 +2876,13 @@
         <v>6256</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -2909,13 +2891,13 @@
         <v>11066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2924,13 +2906,13 @@
         <v>17322</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2927,13 @@
         <v>4353</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -2975,13 +2957,13 @@
         <v>17277</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2978,13 @@
         <v>12774</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -3011,13 +2993,13 @@
         <v>34951</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -3026,13 +3008,13 @@
         <v>47725</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3029,13 @@
         <v>391015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>543</v>
@@ -3062,13 +3044,13 @@
         <v>575604</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>900</v>
@@ -3077,13 +3059,13 @@
         <v>966618</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,7 +3139,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3166,13 +3148,13 @@
         <v>2424</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -3181,13 +3163,13 @@
         <v>3416</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3190,7 @@
         <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3223,7 +3205,7 @@
         <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3238,7 +3220,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3235,13 @@
         <v>1107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3268,13 +3250,13 @@
         <v>1109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3283,13 +3265,13 @@
         <v>2215</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,10 +3286,10 @@
         <v>116566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>66</v>
@@ -3319,13 +3301,13 @@
         <v>79541</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M12" s="7">
         <v>177</v>
@@ -3334,13 +3316,13 @@
         <v>196107</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +3396,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3429,7 +3411,7 @@
         <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3444,7 +3426,7 @@
         <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,7 +3447,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3474,13 +3456,13 @@
         <v>1100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -3489,13 +3471,13 @@
         <v>1100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3492,13 @@
         <v>986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3531,7 +3513,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3540,13 +3522,13 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,10 +3543,10 @@
         <v>25589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -3576,10 +3558,10 @@
         <v>21146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -3591,10 +3573,10 @@
         <v>46736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -3665,13 +3647,13 @@
         <v>7249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3680,13 +3662,13 @@
         <v>13490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -3695,13 +3677,13 @@
         <v>20738</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3698,13 @@
         <v>4353</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3731,13 +3713,13 @@
         <v>14023</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -3746,13 +3728,13 @@
         <v>18376</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3749,13 @@
         <v>14866</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -3782,13 +3764,13 @@
         <v>36060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M21" s="7">
         <v>47</v>
@@ -3797,13 +3779,13 @@
         <v>50926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3800,13 @@
         <v>533169</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="H22" s="7">
         <v>634</v>
@@ -3833,13 +3815,13 @@
         <v>676292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M22" s="7">
         <v>1114</v>
@@ -3848,13 +3830,13 @@
         <v>1209461</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,7 +3892,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3929,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD64F19-4DD7-4A64-94FE-E9A53EA8ACB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE81500C-1B1D-4BB6-A78F-C7429BFD60ED}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3946,7 +3928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4053,13 +4035,13 @@
         <v>892</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4068,13 +4050,13 @@
         <v>9535</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4086,10 +4068,10 @@
         <v>62</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4086,13 @@
         <v>6017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4125,7 +4107,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4134,13 +4116,13 @@
         <v>8484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4137,13 @@
         <v>8638</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -4170,13 +4152,13 @@
         <v>29871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -4185,13 +4167,13 @@
         <v>38509</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4188,13 @@
         <v>338354</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>438</v>
@@ -4221,13 +4203,13 @@
         <v>512884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>806</v>
@@ -4236,13 +4218,13 @@
         <v>851237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4292,13 @@
         <v>1804</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4331,7 +4313,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4340,13 +4322,13 @@
         <v>1804</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4343,13 @@
         <v>898</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4382,7 +4364,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4391,13 +4373,13 @@
         <v>3054</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,7 +4400,7 @@
         <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4427,13 +4409,13 @@
         <v>1033</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4442,13 +4424,13 @@
         <v>1033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4445,13 @@
         <v>189830</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
@@ -4478,13 +4460,13 @@
         <v>184885</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M12" s="7">
         <v>348</v>
@@ -4493,13 +4475,13 @@
         <v>374715</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,7 +4555,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4588,7 +4570,7 @@
         <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4603,7 +4585,7 @@
         <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,7 +4606,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4639,7 +4621,7 @@
         <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4654,7 +4636,7 @@
         <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4651,13 @@
         <v>1572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4684,13 +4666,13 @@
         <v>1376</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4699,13 +4681,13 @@
         <v>2948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,10 +4702,10 @@
         <v>40457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -4735,10 +4717,10 @@
         <v>32298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -4750,10 +4732,10 @@
         <v>72755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -4839,13 +4821,13 @@
         <v>9535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -4854,13 +4836,13 @@
         <v>12232</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,10 +4860,10 @@
         <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4893,10 +4875,10 @@
         <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4905,13 +4887,13 @@
         <v>11538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4908,13 @@
         <v>10210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -4941,13 +4923,13 @@
         <v>32280</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>292</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -4956,10 +4938,10 @@
         <v>42491</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>294</v>
@@ -5069,7 +5051,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5088,7 +5070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A44556-9E16-4658-ACB1-3B101253AECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0AB10A-79D6-437B-AE37-5E6925F8A1E1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5215,10 +5197,10 @@
         <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>97</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5227,13 +5209,13 @@
         <v>12049</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -5242,13 +5224,13 @@
         <v>14324</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>308</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5245,13 @@
         <v>882</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5278,13 +5260,13 @@
         <v>6087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5293,13 +5275,13 @@
         <v>6969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>310</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5296,13 @@
         <v>9629</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>61</v>
@@ -5329,13 +5311,13 @@
         <v>35540</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>76</v>
@@ -5344,13 +5326,13 @@
         <v>45168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5347,13 @@
         <v>274119</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>926</v>
@@ -5380,13 +5362,13 @@
         <v>501844</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>1332</v>
@@ -5395,13 +5377,13 @@
         <v>775962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,7 +5457,7 @@
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>327</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5484,13 +5466,13 @@
         <v>473</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -5499,13 +5481,13 @@
         <v>473</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>327</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,10 +5505,10 @@
         <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5538,10 +5520,10 @@
         <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5553,10 +5535,10 @@
         <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,10 +5556,10 @@
         <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -5586,13 +5568,13 @@
         <v>7957</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>339</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -5601,13 +5583,13 @@
         <v>11934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5604,13 @@
         <v>288356</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>507</v>
@@ -5637,28 +5619,28 @@
         <v>375848</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>925</v>
       </c>
       <c r="N12" s="7">
-        <v>664204</v>
+        <v>664203</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>167</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +5682,7 @@
         <v>954</v>
       </c>
       <c r="N13" s="7">
-        <v>680612</v>
+        <v>680611</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -5732,7 +5714,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5747,7 +5729,7 @@
         <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5777,13 +5759,13 @@
         <v>159</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5798,7 +5780,7 @@
         <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5807,13 +5789,13 @@
         <v>159</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>155</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +5816,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5849,7 +5831,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5879,10 +5861,10 @@
         <v>111827</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -5897,7 +5879,7 @@
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>49</v>
@@ -5909,10 +5891,10 @@
         <v>190072</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -5983,13 +5965,13 @@
         <v>2275</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -5998,7 +5980,7 @@
         <v>12522</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>362</v>
@@ -6013,13 +5995,13 @@
         <v>14797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6016,13 @@
         <v>3274</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -6049,13 +6031,13 @@
         <v>7856</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -6064,13 +6046,13 @@
         <v>11130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6067,13 @@
         <v>13606</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>372</v>
+        <v>251</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -6100,13 +6082,13 @@
         <v>43496</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
@@ -6115,13 +6097,13 @@
         <v>57102</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6118,13 @@
         <v>674301</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H22" s="7">
         <v>1585</v>
@@ -6151,13 +6133,13 @@
         <v>955937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>2576</v>
@@ -6169,10 +6151,10 @@
         <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,7 +6210,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5417-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D176FA42-67AB-4FBA-BDA3-8BEE1E31E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF56B89-E27E-4AC9-94E8-A2484015EB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0237E49F-8C77-48AB-B6F4-062D7397B0CA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F5189E9A-3036-41FC-9F04-648BD327CDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="376">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -959,211 +959,190 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>99,91%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>96,05%</t>
@@ -1172,16 +1151,22 @@
     <t>98,13%</t>
   </si>
   <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE588C33-DBDB-4E0A-ADC2-A1EECEA12F63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6025133-C241-4406-BC04-F8F7B08ADB1E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1882,7 +1867,7 @@
         <v>546</v>
       </c>
       <c r="I7" s="7">
-        <v>558222</v>
+        <v>558221</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1933,7 +1918,7 @@
         <v>574</v>
       </c>
       <c r="I8" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -2752,7 +2737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5F537B-AF9E-41DD-8BFE-E5908AF1F13E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F692FE-8DEA-48F0-822B-1943E354AB42}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3911,7 +3896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE81500C-1B1D-4BB6-A78F-C7429BFD60ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF2C073-6D8E-445F-A0B1-52311D224824}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4185,7 +4170,7 @@
         <v>368</v>
       </c>
       <c r="D7" s="7">
-        <v>338354</v>
+        <v>338353</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>240</v>
@@ -4236,7 +4221,7 @@
         <v>386</v>
       </c>
       <c r="D8" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -5070,7 +5055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0AB10A-79D6-437B-AE37-5E6925F8A1E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A346158A-2E91-44E8-ABD7-96CB1CF94C22}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5191,10 +5176,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>2275</v>
+        <v>2147</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>305</v>
@@ -5206,13 +5191,13 @@
         <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>12049</v>
+        <v>10708</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>308</v>
@@ -5221,16 +5206,16 @@
         <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>14324</v>
+        <v>12855</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>310</v>
@@ -5257,31 +5242,31 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>6087</v>
+        <v>5731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>6969</v>
+        <v>6563</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,10 +5278,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="7">
-        <v>9629</v>
+        <v>8930</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>315</v>
@@ -5308,31 +5293,31 @@
         <v>61</v>
       </c>
       <c r="I6" s="7">
-        <v>35540</v>
+        <v>30947</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>76</v>
       </c>
       <c r="N6" s="7">
-        <v>45168</v>
+        <v>39877</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,46 +5329,46 @@
         <v>406</v>
       </c>
       <c r="D7" s="7">
-        <v>274119</v>
+        <v>256812</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>926</v>
       </c>
       <c r="I7" s="7">
-        <v>501844</v>
+        <v>453348</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>1332</v>
       </c>
       <c r="N7" s="7">
-        <v>775962</v>
+        <v>710159</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,7 +5380,7 @@
         <v>427</v>
       </c>
       <c r="D8" s="7">
-        <v>286904</v>
+        <v>268721</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -5410,7 +5395,7 @@
         <v>1019</v>
       </c>
       <c r="I8" s="7">
-        <v>555520</v>
+        <v>500733</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -5425,7 +5410,7 @@
         <v>1446</v>
       </c>
       <c r="N8" s="7">
-        <v>842424</v>
+        <v>769454</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -5463,31 +5448,31 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>332</v>
+        <v>18</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2233</v>
+        <v>2088</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>55</v>
@@ -5514,31 +5499,31 @@
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1769</v>
+        <v>1652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>4002</v>
+        <v>3740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,46 +5535,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3977</v>
+        <v>3664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>7957</v>
+        <v>7224</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>338</v>
+        <v>94</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>11934</v>
+        <v>10888</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>91</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,7 +5586,7 @@
         <v>418</v>
       </c>
       <c r="D12" s="7">
-        <v>288356</v>
+        <v>267505</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>341</v>
@@ -5616,7 +5601,7 @@
         <v>507</v>
       </c>
       <c r="I12" s="7">
-        <v>375848</v>
+        <v>446074</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>344</v>
@@ -5625,22 +5610,22 @@
         <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>925</v>
       </c>
       <c r="N12" s="7">
-        <v>664203</v>
+        <v>713579</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5637,7 @@
         <v>426</v>
       </c>
       <c r="D13" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -5667,7 +5652,7 @@
         <v>528</v>
       </c>
       <c r="I13" s="7">
-        <v>386046</v>
+        <v>455392</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -5682,7 +5667,7 @@
         <v>954</v>
       </c>
       <c r="N13" s="7">
-        <v>680611</v>
+        <v>728649</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -5714,7 +5699,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5729,7 +5714,7 @@
         <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5756,16 +5741,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5780,22 +5765,22 @@
         <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>354</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,7 +5801,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5831,7 +5816,7 @@
         <v>51</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5858,13 +5843,13 @@
         <v>167</v>
       </c>
       <c r="D17" s="7">
-        <v>111827</v>
+        <v>104828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -5873,13 +5858,13 @@
         <v>152</v>
       </c>
       <c r="I17" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>49</v>
@@ -5888,13 +5873,13 @@
         <v>319</v>
       </c>
       <c r="N17" s="7">
-        <v>190072</v>
+        <v>176153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -5909,7 +5894,7 @@
         <v>168</v>
       </c>
       <c r="D18" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -5924,7 +5909,7 @@
         <v>152</v>
       </c>
       <c r="I18" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -5939,7 +5924,7 @@
         <v>320</v>
       </c>
       <c r="N18" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -5962,46 +5947,46 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>2275</v>
+        <v>2147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>12522</v>
+        <v>11149</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
       </c>
       <c r="N19" s="7">
-        <v>14797</v>
+        <v>13296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,46 +5998,46 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>3274</v>
+        <v>3078</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
       </c>
       <c r="I20" s="7">
-        <v>7856</v>
+        <v>7383</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
       </c>
       <c r="N20" s="7">
-        <v>11130</v>
+        <v>10461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,46 +6049,46 @@
         <v>20</v>
       </c>
       <c r="D21" s="7">
-        <v>13606</v>
+        <v>12594</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
       </c>
       <c r="I21" s="7">
-        <v>43496</v>
+        <v>38171</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>370</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
       </c>
       <c r="N21" s="7">
-        <v>57102</v>
+        <v>50765</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>371</v>
+        <v>291</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>372</v>
+        <v>182</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>373</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,46 +6100,46 @@
         <v>991</v>
       </c>
       <c r="D22" s="7">
-        <v>674301</v>
+        <v>629144</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>1585</v>
       </c>
       <c r="I22" s="7">
-        <v>955937</v>
+        <v>970746</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>2576</v>
       </c>
       <c r="N22" s="7">
-        <v>1630237</v>
+        <v>1599890</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,7 +6151,7 @@
         <v>1021</v>
       </c>
       <c r="D23" s="7">
-        <v>693456</v>
+        <v>646964</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -6181,7 +6166,7 @@
         <v>1699</v>
       </c>
       <c r="I23" s="7">
-        <v>1019811</v>
+        <v>1027449</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -6196,7 +6181,7 @@
         <v>2720</v>
       </c>
       <c r="N23" s="7">
-        <v>1713266</v>
+        <v>1674413</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
